--- a/Results/13,15-Oct20-ExtendedFR/As CSTR k_dash.xlsx
+++ b/Results/13,15-Oct20-ExtendedFR/As CSTR k_dash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbapat\Box\MS Project - Prof. Gellman\Results\13,15 Oct 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE5457C-4E00-45D7-8E66-080033486DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CBCFB72-5F70-49F4-B847-C9167789CFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -383,9 +383,8 @@
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -2439,6 +2438,144 @@
         <v>17.041336295000001</v>
       </c>
     </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C90" s="1">
+        <v>28.144574744104382</v>
+      </c>
+      <c r="D90" s="1">
+        <v>15.079510912866553</v>
+      </c>
+      <c r="E90" s="1">
+        <v>5.6000000000001054E-12</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.79730280475963022</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2.940230646666667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C91" s="1">
+        <v>28.144582203844884</v>
+      </c>
+      <c r="D91" s="1">
+        <v>14.982234762322813</v>
+      </c>
+      <c r="E91" s="1">
+        <v>5.6000000000001054E-12</v>
+      </c>
+      <c r="F91" s="1">
+        <v>7.9215928821964665</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2.94329032</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C92" s="1">
+        <v>28.144656805508703</v>
+      </c>
+      <c r="D92" s="1">
+        <v>14.031095621768284</v>
+      </c>
+      <c r="E92" s="1">
+        <v>5.6000000000001054E-12</v>
+      </c>
+      <c r="F92" s="1">
+        <v>74.186751411817539</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2.343928375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C93" s="1">
+        <v>28.145403269381557</v>
+      </c>
+      <c r="D93" s="1">
+        <v>7.391107418324439</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5.6000000000001054E-12</v>
+      </c>
+      <c r="F93" s="1">
+        <v>390.78039309615673</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2.3650875249999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C94" s="1">
+        <v>28.152923318645136</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.99170051792655445</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5.6000000000001054E-12</v>
+      </c>
+      <c r="F94" s="1">
+        <v>524.18883880726582</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2.5354220333333335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>100</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C95" s="1">
+        <v>28.238435539972279</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.11006466239560643</v>
+      </c>
+      <c r="E95" s="1">
+        <v>5.6000000000001054E-12</v>
+      </c>
+      <c r="F95" s="1">
+        <v>580.01336427301112</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4.5400861499999996</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
     <sortCondition ref="A1"/>
